--- a/ComputerDatabase_TestCases.xlsx
+++ b/ComputerDatabase_TestCases.xlsx
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Auto</t>
   </si>
   <si>
     <t>Notes</t>
@@ -1429,6 +1426,9 @@
   </si>
   <si>
     <t>DF005</t>
+  </si>
+  <si>
+    <t>Should be automated</t>
   </si>
 </sst>
 </file>
@@ -1708,7 +1708,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1827,6 +1827,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3197,21 +3200,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3">
         <f>'Computer Database'!J3</f>
@@ -3228,7 +3231,7 @@
     </row>
     <row r="3" spans="1:4" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8">
         <f>SUM(B2:B2)</f>
@@ -3255,7 +3258,7 @@
   <dimension ref="A1:M223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="H7" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3271,7 +3274,7 @@
     <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -3280,7 +3283,7 @@
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
@@ -3297,7 +3300,7 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
@@ -3305,19 +3308,19 @@
       <c r="G2" s="9"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="M2" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3346,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3393,30 +3396,30 @@
         <v>5</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="M5" s="17" t="s">
         <v>7</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -3433,32 +3436,32 @@
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="9">
         <v>1</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K7" s="24"/>
       <c r="L7" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M7" s="24"/>
     </row>
@@ -3470,7 +3473,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="33"/>
@@ -3483,7 +3486,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3500,34 +3503,34 @@
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="9">
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="25" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M10" s="24"/>
     </row>
@@ -3539,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="28"/>
@@ -3558,7 +3561,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="28"/>
@@ -3577,7 +3580,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="28"/>
@@ -3590,7 +3593,7 @@
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -3607,32 +3610,32 @@
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>44</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>45</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="9">
         <v>1</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K15" s="24"/>
       <c r="L15" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M15" s="24"/>
     </row>
@@ -3644,7 +3647,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="28"/>
@@ -3663,7 +3666,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="28"/>
@@ -3682,7 +3685,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="28"/>
@@ -3701,7 +3704,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="28"/>
@@ -3714,7 +3717,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -3731,34 +3734,34 @@
     </row>
     <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="9">
         <v>1</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K21" s="24"/>
       <c r="L21" s="25" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M21" s="24"/>
     </row>
@@ -3770,7 +3773,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="28"/>
@@ -3789,7 +3792,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="28"/>
@@ -3802,7 +3805,7 @@
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -3819,34 +3822,34 @@
     </row>
     <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="9">
         <v>1</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H25" s="23"/>
       <c r="I25" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J25" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="25" t="s">
         <v>10</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="L25" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="M25" s="24"/>
     </row>
@@ -3858,7 +3861,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="28"/>
@@ -3871,7 +3874,7 @@
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -3888,34 +3891,34 @@
     </row>
     <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="9">
         <v>1</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="25" t="s">
         <v>10</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="M28" s="24"/>
     </row>
@@ -3927,7 +3930,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="31"/>
@@ -3946,7 +3949,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="31"/>
@@ -3959,7 +3962,7 @@
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
@@ -3976,34 +3979,34 @@
     </row>
     <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="9">
         <v>1</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" s="25" t="s">
         <v>10</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="L32" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="M32" s="24"/>
     </row>
@@ -4015,7 +4018,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="28"/>
@@ -4028,7 +4031,7 @@
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
@@ -4045,34 +4048,34 @@
     </row>
     <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="9">
         <v>1</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H35" s="23"/>
       <c r="I35" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J35" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35" s="25" t="s">
         <v>10</v>
-      </c>
-      <c r="K35" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="M35" s="24"/>
     </row>
@@ -4084,7 +4087,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="39"/>
@@ -4097,7 +4100,7 @@
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
@@ -4114,34 +4117,34 @@
     </row>
     <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="27"/>
       <c r="D38" s="9">
         <v>1</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H38" s="23"/>
       <c r="I38" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J38" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L38" s="25" t="s">
         <v>10</v>
-      </c>
-      <c r="K38" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L38" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="M38" s="24"/>
     </row>
@@ -4153,7 +4156,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="38"/>
@@ -4172,7 +4175,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="38"/>
@@ -4185,7 +4188,7 @@
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
@@ -4202,34 +4205,34 @@
     </row>
     <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="9">
         <v>1</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="23"/>
       <c r="I42" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J42" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="L42" s="25" t="s">
         <v>10</v>
-      </c>
-      <c r="K42" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="L42" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="M42" s="24"/>
     </row>
@@ -4241,7 +4244,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F43" s="29"/>
       <c r="G43" s="39"/>
@@ -4254,7 +4257,7 @@
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
@@ -4271,34 +4274,34 @@
     </row>
     <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="9">
         <v>1</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F45" s="29"/>
       <c r="G45" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H45" s="40"/>
       <c r="I45" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J45" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="L45" s="25" t="s">
         <v>10</v>
-      </c>
-      <c r="K45" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="L45" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="M45" s="24"/>
     </row>
@@ -4310,7 +4313,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F46" s="29"/>
       <c r="G46" s="38"/>
@@ -4329,7 +4332,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="38"/>
@@ -4342,7 +4345,7 @@
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="26"/>
@@ -4359,34 +4362,34 @@
     </row>
     <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="9">
         <v>1</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F49" s="29"/>
       <c r="G49" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H49" s="40"/>
       <c r="I49" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J49" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="L49" s="25" t="s">
         <v>10</v>
-      </c>
-      <c r="K49" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="L49" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="M49" s="24"/>
     </row>
@@ -4398,7 +4401,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F50" s="29"/>
       <c r="G50" s="39"/>
@@ -4411,7 +4414,7 @@
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
@@ -4428,34 +4431,34 @@
     </row>
     <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" s="27"/>
       <c r="D52" s="9">
         <v>1</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F52" s="29"/>
       <c r="G52" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H52" s="40"/>
       <c r="I52" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J52" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="L52" s="25" t="s">
         <v>10</v>
-      </c>
-      <c r="K52" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="L52" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="M52" s="24"/>
     </row>
@@ -4467,7 +4470,7 @@
         <v>2</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F53" s="29"/>
       <c r="G53" s="38"/>
@@ -4486,7 +4489,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F54" s="29"/>
       <c r="G54" s="38"/>
@@ -4499,7 +4502,7 @@
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
@@ -4516,32 +4519,32 @@
     </row>
     <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="27" t="s">
         <v>98</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>99</v>
       </c>
       <c r="C56" s="27"/>
       <c r="D56" s="9">
         <v>1</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F56" s="29"/>
       <c r="G56" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J56" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K56" s="24"/>
       <c r="L56" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M56" s="24"/>
     </row>
@@ -4553,7 +4556,7 @@
         <v>2</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F57" s="29"/>
       <c r="G57" s="31"/>
@@ -4572,7 +4575,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F58" s="29"/>
       <c r="G58" s="31"/>
@@ -4585,7 +4588,7 @@
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B59" s="26"/>
       <c r="C59" s="26"/>
@@ -4602,32 +4605,32 @@
     </row>
     <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C60" s="27"/>
       <c r="D60" s="9">
         <v>1</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F60" s="29"/>
       <c r="G60" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H60" s="40"/>
       <c r="I60" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K60" s="24"/>
       <c r="L60" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M60" s="24"/>
     </row>
@@ -4639,7 +4642,7 @@
         <v>2</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F61" s="29"/>
       <c r="G61" s="38"/>
@@ -4652,7 +4655,7 @@
     </row>
     <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B62" s="26"/>
       <c r="C62" s="26"/>
@@ -4669,32 +4672,32 @@
     </row>
     <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C63" s="27"/>
       <c r="D63" s="9">
         <v>1</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F63" s="29"/>
       <c r="G63" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H63" s="40"/>
       <c r="I63" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K63" s="24"/>
       <c r="L63" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M63" s="24"/>
     </row>
@@ -4706,7 +4709,7 @@
         <v>2</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F64" s="29"/>
       <c r="G64" s="38"/>
@@ -4725,7 +4728,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F65" s="29"/>
       <c r="G65" s="38"/>
@@ -4738,7 +4741,7 @@
     </row>
     <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B66" s="26"/>
       <c r="C66" s="26"/>
@@ -4755,32 +4758,32 @@
     </row>
     <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C67" s="27"/>
       <c r="D67" s="9">
         <v>1</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F67" s="29"/>
       <c r="G67" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H67" s="40"/>
       <c r="I67" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J67" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K67" s="24"/>
       <c r="L67" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M67" s="24"/>
     </row>
@@ -4792,7 +4795,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="38"/>
@@ -4811,7 +4814,7 @@
         <v>3</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="38"/>
@@ -4824,7 +4827,7 @@
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B70" s="26"/>
       <c r="C70" s="26"/>
@@ -4841,34 +4844,34 @@
     </row>
     <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C71" s="27"/>
       <c r="D71" s="9">
         <v>1</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F71" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G71" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H71" s="40"/>
       <c r="I71" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J71" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K71" s="24"/>
       <c r="L71" s="25" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M71" s="24"/>
     </row>
@@ -4880,7 +4883,7 @@
         <v>2</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="38"/>
@@ -4899,7 +4902,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="38"/>
@@ -4918,7 +4921,7 @@
         <v>4</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F74" s="29"/>
       <c r="G74" s="38"/>
@@ -4937,7 +4940,7 @@
         <v>5</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F75" s="29"/>
       <c r="G75" s="38"/>
@@ -4950,7 +4953,7 @@
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B76" s="26"/>
       <c r="C76" s="26"/>
@@ -4967,32 +4970,32 @@
     </row>
     <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C77" s="27"/>
       <c r="D77" s="9">
         <v>1</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F77" s="29"/>
       <c r="G77" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H77" s="40"/>
       <c r="I77" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J77" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K77" s="24"/>
       <c r="L77" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M77" s="24"/>
     </row>
@@ -5004,7 +5007,7 @@
         <v>2</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F78" s="29"/>
       <c r="G78" s="38"/>
@@ -5023,7 +5026,7 @@
         <v>3</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F79" s="29"/>
       <c r="G79" s="38"/>
@@ -5042,7 +5045,7 @@
         <v>4</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F80" s="29"/>
       <c r="G80" s="38"/>
@@ -5055,7 +5058,7 @@
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B81" s="26"/>
       <c r="C81" s="26"/>
@@ -5072,32 +5075,32 @@
     </row>
     <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C82" s="27"/>
       <c r="D82" s="9">
         <v>1</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F82" s="29"/>
       <c r="G82" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H82" s="40"/>
       <c r="I82" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J82" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K82" s="24"/>
       <c r="L82" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M82" s="24"/>
     </row>
@@ -5109,7 +5112,7 @@
         <v>2</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F83" s="29"/>
       <c r="G83" s="33"/>
@@ -5128,7 +5131,7 @@
         <v>3</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F84" s="29"/>
       <c r="G84" s="33"/>
@@ -5147,7 +5150,7 @@
         <v>4</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F85" s="29"/>
       <c r="G85" s="33"/>
@@ -5166,7 +5169,7 @@
         <v>5</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F86" s="29"/>
       <c r="G86" s="33"/>
@@ -5185,7 +5188,7 @@
         <v>6</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F87" s="29"/>
       <c r="G87" s="33"/>
@@ -5198,7 +5201,7 @@
     </row>
     <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B88" s="26"/>
       <c r="C88" s="26"/>
@@ -5215,34 +5218,34 @@
     </row>
     <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C89" s="27"/>
       <c r="D89" s="9">
         <v>1</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F89" s="29"/>
       <c r="G89" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H89" s="40"/>
       <c r="I89" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J89" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K89" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L89" s="25" t="s">
         <v>10</v>
-      </c>
-      <c r="K89" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="L89" s="25" t="s">
-        <v>11</v>
       </c>
       <c r="M89" s="24"/>
     </row>
@@ -5254,7 +5257,7 @@
         <v>2</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F90" s="29"/>
       <c r="G90" s="38"/>
@@ -5273,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F91" s="29"/>
       <c r="G91" s="38"/>
@@ -5292,7 +5295,7 @@
         <v>4</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F92" s="29"/>
       <c r="G92" s="38"/>
@@ -5305,7 +5308,7 @@
     </row>
     <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B93" s="26"/>
       <c r="C93" s="26"/>
@@ -5322,34 +5325,34 @@
     </row>
     <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C94" s="27"/>
       <c r="D94" s="9">
         <v>1</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F94" s="29"/>
       <c r="G94" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H94" s="40"/>
       <c r="I94" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J94" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K94" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L94" s="25" t="s">
         <v>10</v>
-      </c>
-      <c r="K94" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="L94" s="25" t="s">
-        <v>11</v>
       </c>
       <c r="M94" s="24"/>
     </row>
@@ -5361,7 +5364,7 @@
         <v>2</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F95" s="29"/>
       <c r="G95" s="33"/>
@@ -5380,7 +5383,7 @@
         <v>3</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F96" s="29"/>
       <c r="G96" s="33"/>
@@ -5399,7 +5402,7 @@
         <v>4</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F97" s="29"/>
       <c r="G97" s="33"/>
@@ -5418,7 +5421,7 @@
         <v>5</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F98" s="29"/>
       <c r="G98" s="33"/>
@@ -5437,7 +5440,7 @@
         <v>6</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F99" s="29"/>
       <c r="G99" s="33"/>
@@ -5456,7 +5459,7 @@
         <v>7</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F100" s="29"/>
       <c r="G100" s="33"/>
@@ -5475,7 +5478,7 @@
         <v>8</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F101" s="29"/>
       <c r="G101" s="33"/>
@@ -5494,7 +5497,7 @@
         <v>9</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F102" s="29"/>
       <c r="G102" s="33"/>
@@ -5513,7 +5516,7 @@
         <v>10</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F103" s="29"/>
       <c r="G103" s="33"/>
@@ -5526,7 +5529,7 @@
     </row>
     <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B104" s="26"/>
       <c r="C104" s="26"/>
@@ -5543,34 +5546,34 @@
     </row>
     <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C105" s="27"/>
       <c r="D105" s="9">
         <v>1</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F105" s="29"/>
       <c r="G105" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H105" s="40"/>
       <c r="I105" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J105" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K105" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L105" s="25" t="s">
         <v>10</v>
-      </c>
-      <c r="K105" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="L105" s="25" t="s">
-        <v>11</v>
       </c>
       <c r="M105" s="24"/>
     </row>
@@ -5582,7 +5585,7 @@
         <v>2</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F106" s="29"/>
       <c r="G106" s="33"/>
@@ -5601,7 +5604,7 @@
         <v>3</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F107" s="29"/>
       <c r="G107" s="33"/>
@@ -5620,7 +5623,7 @@
         <v>4</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F108" s="29"/>
       <c r="G108" s="33"/>
@@ -5639,7 +5642,7 @@
         <v>5</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F109" s="29"/>
       <c r="G109" s="33"/>
@@ -5658,7 +5661,7 @@
         <v>6</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F110" s="29"/>
       <c r="G110" s="33"/>
@@ -5677,7 +5680,7 @@
         <v>7</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F111" s="29"/>
       <c r="G111" s="33"/>
@@ -5696,7 +5699,7 @@
         <v>8</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F112" s="29"/>
       <c r="G112" s="33"/>
@@ -5715,7 +5718,7 @@
         <v>9</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F113" s="29"/>
       <c r="G113" s="33"/>
@@ -5734,7 +5737,7 @@
         <v>10</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F114" s="29"/>
       <c r="G114" s="33"/>
@@ -5747,7 +5750,7 @@
     </row>
     <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B115" s="26"/>
       <c r="C115" s="26"/>
@@ -5764,34 +5767,34 @@
     </row>
     <row r="116" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C116" s="27"/>
       <c r="D116" s="9">
         <v>1</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F116" s="29"/>
       <c r="G116" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H116" s="40"/>
       <c r="I116" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J116" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K116" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L116" s="25" t="s">
         <v>10</v>
-      </c>
-      <c r="K116" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="L116" s="25" t="s">
-        <v>11</v>
       </c>
       <c r="M116" s="24"/>
     </row>
@@ -5803,7 +5806,7 @@
         <v>2</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F117" s="29"/>
       <c r="G117" s="38"/>
@@ -5822,7 +5825,7 @@
         <v>3</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F118" s="29"/>
       <c r="G118" s="38"/>
@@ -5841,7 +5844,7 @@
         <v>4</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F119" s="29"/>
       <c r="G119" s="38"/>
@@ -5854,7 +5857,7 @@
     </row>
     <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B120" s="26"/>
       <c r="C120" s="26"/>
@@ -5871,32 +5874,32 @@
     </row>
     <row r="121" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C121" s="27"/>
       <c r="D121" s="9">
         <v>1</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F121" s="29"/>
       <c r="G121" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H121" s="40"/>
       <c r="I121" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J121" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K121" s="24"/>
       <c r="L121" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M121" s="24"/>
     </row>
@@ -5908,7 +5911,7 @@
         <v>2</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F122" s="29"/>
       <c r="G122" s="38"/>
@@ -5927,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F123" s="29"/>
       <c r="G123" s="38"/>
@@ -5946,7 +5949,7 @@
         <v>4</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F124" s="29"/>
       <c r="G124" s="38"/>
@@ -5965,7 +5968,7 @@
         <v>5</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F125" s="29"/>
       <c r="G125" s="38"/>
@@ -5978,7 +5981,7 @@
     </row>
     <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B126" s="26"/>
       <c r="C126" s="26"/>
@@ -5995,34 +5998,34 @@
     </row>
     <row r="127" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B127" s="27" t="s">
         <v>152</v>
-      </c>
-      <c r="B127" s="27" t="s">
-        <v>153</v>
       </c>
       <c r="C127" s="27"/>
       <c r="D127" s="9">
         <v>1</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F127" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G127" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H127" s="40"/>
       <c r="I127" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J127" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K127" s="24"/>
       <c r="L127" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M127" s="24"/>
     </row>
@@ -6034,7 +6037,7 @@
         <v>2</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F128" s="29"/>
       <c r="G128" s="33"/>
@@ -6047,7 +6050,7 @@
     </row>
     <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B129" s="26"/>
       <c r="C129" s="26"/>
@@ -6064,34 +6067,34 @@
     </row>
     <row r="130" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C130" s="27"/>
       <c r="D130" s="9">
         <v>1</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F130" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G130" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H130" s="40"/>
       <c r="I130" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J130" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K130" s="24"/>
       <c r="L130" s="25" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M130" s="24"/>
     </row>
@@ -6103,7 +6106,7 @@
         <v>2</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F131" s="29"/>
       <c r="G131" s="33"/>
@@ -6122,7 +6125,7 @@
         <v>3</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F132" s="29"/>
       <c r="G132" s="33"/>
@@ -6135,7 +6138,7 @@
     </row>
     <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B133" s="26"/>
       <c r="C133" s="26"/>
@@ -6152,34 +6155,34 @@
     </row>
     <row r="134" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B134" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C134" s="27"/>
       <c r="D134" s="9">
         <v>1</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F134" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G134" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H134" s="40"/>
       <c r="I134" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J134" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K134" s="24"/>
       <c r="L134" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M134" s="24"/>
     </row>
@@ -6191,7 +6194,7 @@
         <v>2</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F135" s="29"/>
       <c r="G135" s="33"/>
@@ -6210,7 +6213,7 @@
         <v>3</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F136" s="29"/>
       <c r="G136" s="33"/>
@@ -6223,7 +6226,7 @@
     </row>
     <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B137" s="26"/>
       <c r="C137" s="26"/>
@@ -6240,34 +6243,34 @@
     </row>
     <row r="138" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C138" s="27"/>
       <c r="D138" s="9">
         <v>1</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F138" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G138" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H138" s="40"/>
       <c r="I138" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J138" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K138" s="24"/>
       <c r="L138" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M138" s="24"/>
     </row>
@@ -6279,7 +6282,7 @@
         <v>2</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F139" s="29"/>
       <c r="G139" s="33"/>
@@ -6298,7 +6301,7 @@
         <v>3</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F140" s="29"/>
       <c r="G140" s="33"/>
@@ -6317,7 +6320,7 @@
         <v>4</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F141" s="29"/>
       <c r="G141" s="33"/>
@@ -6336,7 +6339,7 @@
         <v>5</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F142" s="29"/>
       <c r="G142" s="33"/>
@@ -6349,7 +6352,7 @@
     </row>
     <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B143" s="26"/>
       <c r="C143" s="26"/>
@@ -6366,34 +6369,34 @@
     </row>
     <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C144" s="27"/>
       <c r="D144" s="9">
         <v>1</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F144" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G144" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H144" s="40"/>
       <c r="I144" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J144" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K144" s="24"/>
       <c r="L144" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M144" s="24"/>
     </row>
@@ -6405,7 +6408,7 @@
         <v>2</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F145" s="29"/>
       <c r="G145" s="33"/>
@@ -6418,7 +6421,7 @@
     </row>
     <row r="146" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B146" s="26"/>
       <c r="C146" s="26"/>
@@ -6435,34 +6438,34 @@
     </row>
     <row r="147" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B147" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C147" s="27"/>
       <c r="D147" s="9">
         <v>1</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F147" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G147" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H147" s="40"/>
       <c r="I147" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J147" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K147" s="24"/>
       <c r="L147" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M147" s="24"/>
     </row>
@@ -6474,7 +6477,7 @@
         <v>2</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F148" s="29"/>
       <c r="G148" s="33"/>
@@ -6493,7 +6496,7 @@
         <v>3</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F149" s="29"/>
       <c r="G149" s="33"/>
@@ -6506,7 +6509,7 @@
     </row>
     <row r="150" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B150" s="26"/>
       <c r="C150" s="26"/>
@@ -6523,34 +6526,34 @@
     </row>
     <row r="151" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B151" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C151" s="27"/>
       <c r="D151" s="9">
         <v>1</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F151" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G151" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H151" s="40"/>
       <c r="I151" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J151" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K151" s="24"/>
       <c r="L151" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M151" s="24"/>
     </row>
@@ -6562,7 +6565,7 @@
         <v>2</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F152" s="29"/>
       <c r="G152" s="33"/>
@@ -6581,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F153" s="29"/>
       <c r="G153" s="33"/>
@@ -6594,7 +6597,7 @@
     </row>
     <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B154" s="26"/>
       <c r="C154" s="26"/>
@@ -6611,34 +6614,34 @@
     </row>
     <row r="155" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C155" s="27"/>
       <c r="D155" s="9">
         <v>1</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F155" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G155" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H155" s="40"/>
       <c r="I155" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J155" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K155" s="24"/>
       <c r="L155" s="25" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M155" s="24"/>
     </row>
@@ -6650,7 +6653,7 @@
         <v>2</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F156" s="29"/>
       <c r="G156" s="33"/>
@@ -6669,7 +6672,7 @@
         <v>3</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F157" s="29"/>
       <c r="G157" s="33"/>
@@ -6682,7 +6685,7 @@
     </row>
     <row r="158" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B158" s="26"/>
       <c r="C158" s="26"/>
@@ -6699,32 +6702,32 @@
     </row>
     <row r="159" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C159" s="27"/>
       <c r="D159" s="9">
         <v>1</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F159" s="29"/>
       <c r="G159" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H159" s="31"/>
       <c r="I159" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J159" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K159" s="24"/>
       <c r="L159" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M159" s="24"/>
     </row>
@@ -6736,7 +6739,7 @@
         <v>2</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F160" s="29"/>
       <c r="G160" s="42"/>
@@ -6749,7 +6752,7 @@
     </row>
     <row r="161" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B161" s="26"/>
       <c r="C161" s="26"/>
@@ -6766,32 +6769,32 @@
     </row>
     <row r="162" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B162" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C162" s="27"/>
       <c r="D162" s="9">
         <v>1</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F162" s="29"/>
       <c r="G162" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H162" s="31"/>
       <c r="I162" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J162" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K162" s="24"/>
       <c r="L162" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M162" s="24"/>
     </row>
@@ -6803,7 +6806,7 @@
         <v>2</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F163" s="29"/>
       <c r="G163" s="43"/>
@@ -6822,7 +6825,7 @@
         <v>3</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F164" s="29"/>
       <c r="G164" s="42"/>
@@ -6835,7 +6838,7 @@
     </row>
     <row r="165" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B165" s="26"/>
       <c r="C165" s="26"/>
@@ -6852,32 +6855,32 @@
     </row>
     <row r="166" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B166" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C166" s="27"/>
       <c r="D166" s="9">
         <v>1</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F166" s="29"/>
       <c r="G166" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H166" s="31"/>
       <c r="I166" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J166" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K166" s="24"/>
       <c r="L166" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M166" s="24"/>
     </row>
@@ -6889,7 +6892,7 @@
         <v>2</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F167" s="29"/>
       <c r="G167" s="33"/>
@@ -6908,7 +6911,7 @@
         <v>3</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F168" s="29"/>
       <c r="G168" s="33"/>
@@ -6927,7 +6930,7 @@
         <v>4</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F169" s="29"/>
       <c r="G169" s="33"/>
@@ -6946,7 +6949,7 @@
         <v>5</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F170" s="29"/>
       <c r="G170" s="33"/>
@@ -6965,7 +6968,7 @@
         <v>6</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F171" s="29"/>
       <c r="G171" s="33"/>
@@ -6978,7 +6981,7 @@
     </row>
     <row r="172" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B172" s="26"/>
       <c r="C172" s="26"/>
@@ -6995,32 +6998,32 @@
     </row>
     <row r="173" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B173" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C173" s="27"/>
       <c r="D173" s="9">
         <v>1</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F173" s="29"/>
       <c r="G173" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H173" s="31"/>
       <c r="I173" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J173" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K173" s="24"/>
       <c r="L173" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M173" s="24"/>
     </row>
@@ -7032,7 +7035,7 @@
         <v>2</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F174" s="29"/>
       <c r="G174" s="38"/>
@@ -7051,7 +7054,7 @@
         <v>3</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F175" s="29"/>
       <c r="G175" s="38"/>
@@ -7070,7 +7073,7 @@
         <v>4</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F176" s="29"/>
       <c r="G176" s="38"/>
@@ -7083,7 +7086,7 @@
     </row>
     <row r="177" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B177" s="26"/>
       <c r="C177" s="26"/>
@@ -7100,34 +7103,34 @@
     </row>
     <row r="178" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B178" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C178" s="27"/>
       <c r="D178" s="9">
         <v>1</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F178" s="29"/>
       <c r="G178" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H178" s="31"/>
       <c r="I178" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J178" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K178" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L178" s="25" t="s">
         <v>10</v>
-      </c>
-      <c r="K178" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="L178" s="25" t="s">
-        <v>11</v>
       </c>
       <c r="M178" s="24"/>
     </row>
@@ -7139,7 +7142,7 @@
         <v>2</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F179" s="29"/>
       <c r="G179" s="33"/>
@@ -7158,7 +7161,7 @@
         <v>3</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F180" s="29"/>
       <c r="G180" s="33"/>
@@ -7175,7 +7178,7 @@
       <c r="C181" s="27"/>
       <c r="D181" s="9"/>
       <c r="E181" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F181" s="29"/>
       <c r="G181" s="33"/>
@@ -7192,7 +7195,7 @@
       <c r="C182" s="27"/>
       <c r="D182" s="9"/>
       <c r="E182" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F182" s="29"/>
       <c r="G182" s="33"/>
@@ -7209,7 +7212,7 @@
       <c r="C183" s="27"/>
       <c r="D183" s="9"/>
       <c r="E183" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F183" s="29"/>
       <c r="G183" s="33"/>
@@ -7226,7 +7229,7 @@
       <c r="C184" s="27"/>
       <c r="D184" s="9"/>
       <c r="E184" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F184" s="29"/>
       <c r="G184" s="33"/>
@@ -7243,7 +7246,7 @@
       <c r="C185" s="27"/>
       <c r="D185" s="9"/>
       <c r="E185" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F185" s="29"/>
       <c r="G185" s="33"/>
@@ -7260,7 +7263,7 @@
       <c r="C186" s="27"/>
       <c r="D186" s="9"/>
       <c r="E186" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F186" s="29"/>
       <c r="G186" s="33"/>
@@ -7277,7 +7280,7 @@
       <c r="C187" s="27"/>
       <c r="D187" s="9"/>
       <c r="E187" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F187" s="29"/>
       <c r="G187" s="33"/>
@@ -7294,7 +7297,7 @@
       <c r="C188" s="27"/>
       <c r="D188" s="9"/>
       <c r="E188" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F188" s="29"/>
       <c r="G188" s="33"/>
@@ -7307,7 +7310,7 @@
     </row>
     <row r="189" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B189" s="26"/>
       <c r="C189" s="26"/>
@@ -7324,34 +7327,34 @@
     </row>
     <row r="190" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B190" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C190" s="27"/>
       <c r="D190" s="9">
         <v>1</v>
       </c>
       <c r="E190" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F190" s="29"/>
       <c r="G190" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H190" s="31"/>
       <c r="I190" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J190" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K190" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L190" s="25" t="s">
         <v>10</v>
-      </c>
-      <c r="K190" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="L190" s="25" t="s">
-        <v>11</v>
       </c>
       <c r="M190" s="24"/>
     </row>
@@ -7363,7 +7366,7 @@
         <v>2</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F191" s="29"/>
       <c r="G191" s="38"/>
@@ -7382,7 +7385,7 @@
         <v>3</v>
       </c>
       <c r="E192" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F192" s="29"/>
       <c r="G192" s="38"/>
@@ -7401,7 +7404,7 @@
         <v>4</v>
       </c>
       <c r="E193" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F193" s="29"/>
       <c r="G193" s="38"/>
@@ -7420,7 +7423,7 @@
         <v>5</v>
       </c>
       <c r="E194" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F194" s="29"/>
       <c r="G194" s="38"/>
@@ -7433,7 +7436,7 @@
     </row>
     <row r="195" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B195" s="26"/>
       <c r="C195" s="26"/>
@@ -7450,34 +7453,34 @@
     </row>
     <row r="196" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B196" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C196" s="27"/>
       <c r="D196" s="9">
         <v>1</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F196" s="29"/>
       <c r="G196" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H196" s="31"/>
       <c r="I196" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J196" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K196" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L196" s="25" t="s">
         <v>10</v>
-      </c>
-      <c r="K196" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="L196" s="25" t="s">
-        <v>11</v>
       </c>
       <c r="M196" s="24"/>
     </row>
@@ -7489,7 +7492,7 @@
         <v>2</v>
       </c>
       <c r="E197" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F197" s="29"/>
       <c r="G197" s="33"/>
@@ -7508,7 +7511,7 @@
         <v>3</v>
       </c>
       <c r="E198" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F198" s="29"/>
       <c r="G198" s="33"/>
@@ -7527,7 +7530,7 @@
         <v>4</v>
       </c>
       <c r="E199" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F199" s="29"/>
       <c r="G199" s="33"/>
@@ -7546,7 +7549,7 @@
         <v>5</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F200" s="29"/>
       <c r="G200" s="33"/>
@@ -7565,7 +7568,7 @@
         <v>6</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F201" s="29"/>
       <c r="G201" s="33"/>
@@ -7584,7 +7587,7 @@
         <v>7</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F202" s="29"/>
       <c r="G202" s="33"/>
@@ -7603,7 +7606,7 @@
         <v>8</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F203" s="29"/>
       <c r="G203" s="33"/>
@@ -7622,7 +7625,7 @@
         <v>9</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F204" s="29"/>
       <c r="G204" s="33"/>
@@ -7641,7 +7644,7 @@
         <v>10</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F205" s="29"/>
       <c r="G205" s="33"/>
@@ -7660,7 +7663,7 @@
         <v>11</v>
       </c>
       <c r="E206" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F206" s="29"/>
       <c r="G206" s="33"/>
@@ -7679,7 +7682,7 @@
         <v>12</v>
       </c>
       <c r="E207" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F207" s="29"/>
       <c r="G207" s="33"/>
@@ -7692,7 +7695,7 @@
     </row>
     <row r="208" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B208" s="26"/>
       <c r="C208" s="26"/>
@@ -7709,34 +7712,34 @@
     </row>
     <row r="209" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B209" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C209" s="27"/>
       <c r="D209" s="9">
         <v>1</v>
       </c>
       <c r="E209" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F209" s="29"/>
       <c r="G209" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H209" s="31"/>
       <c r="I209" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J209" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K209" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L209" s="25" t="s">
         <v>10</v>
-      </c>
-      <c r="K209" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="L209" s="25" t="s">
-        <v>11</v>
       </c>
       <c r="M209" s="24"/>
     </row>
@@ -7748,7 +7751,7 @@
         <v>2</v>
       </c>
       <c r="E210" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F210" s="29"/>
       <c r="G210" s="38"/>
@@ -7767,7 +7770,7 @@
         <v>3</v>
       </c>
       <c r="E211" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F211" s="29"/>
       <c r="G211" s="38"/>
@@ -7786,7 +7789,7 @@
         <v>4</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F212" s="29"/>
       <c r="G212" s="38"/>
@@ -7805,7 +7808,7 @@
         <v>5</v>
       </c>
       <c r="E213" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F213" s="29"/>
       <c r="G213" s="38"/>
@@ -7824,7 +7827,7 @@
         <v>6</v>
       </c>
       <c r="E214" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F214" s="29"/>
       <c r="G214" s="38"/>
@@ -7837,7 +7840,7 @@
     </row>
     <row r="215" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B215" s="26"/>
       <c r="C215" s="26"/>
@@ -7854,32 +7857,32 @@
     </row>
     <row r="216" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B216" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C216" s="27"/>
       <c r="D216" s="9">
         <v>1</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F216" s="29"/>
       <c r="G216" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H216" s="40"/>
       <c r="I216" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J216" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K216" s="24"/>
       <c r="L216" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M216" s="24"/>
     </row>
@@ -7891,7 +7894,7 @@
         <v>2</v>
       </c>
       <c r="E217" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F217" s="29"/>
       <c r="G217" s="38"/>
@@ -7910,7 +7913,7 @@
         <v>3</v>
       </c>
       <c r="E218" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F218" s="29"/>
       <c r="G218" s="38"/>
@@ -7929,7 +7932,7 @@
         <v>4</v>
       </c>
       <c r="E219" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F219" s="29"/>
       <c r="G219" s="38"/>
@@ -7948,7 +7951,7 @@
         <v>5</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F220" s="29"/>
       <c r="G220" s="38"/>
@@ -7967,7 +7970,7 @@
         <v>6</v>
       </c>
       <c r="E221" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F221" s="29"/>
       <c r="G221" s="38"/>
@@ -7986,7 +7989,7 @@
         <v>7</v>
       </c>
       <c r="E222" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F222" s="29"/>
       <c r="G222" s="38"/>
@@ -8005,7 +8008,7 @@
         <v>8</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F223" s="29"/>
       <c r="G223" s="38"/>
